--- a/xlsx/轻工业_intext.xlsx
+++ b/xlsx/轻工业_intext.xlsx
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A1%E7%B9%94%E6%A5%AD</t>
   </si>
   <si>
-    <t>紡織業</t>
+    <t>纺织业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>重工業</t>
+    <t>重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%9F%E8%8D%89</t>
